--- a/Data-output/cicero-quoniam.xlsx
+++ b/Data-output/cicero-quoniam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T470s\Documents\GitHub\ma_thesis_23-24\Data-output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853D6F8F-21C6-4369-B9F7-A7F949D59BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348F3F1-2435-4688-87D0-62A983279BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7539D94A-0D27-4444-9FE3-A009D9811D59}"/>
+    <workbookView xWindow="8892" yWindow="1248" windowWidth="14148" windowHeight="10548" xr2:uid="{7539D94A-0D27-4444-9FE3-A009D9811D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Work</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Pro Caecina</t>
-  </si>
-  <si>
-    <t>(you were going in alphabetical order through the LLT); YOU WERE ALSO WORKING ON GETTING THE DATA FROM DICES</t>
   </si>
   <si>
     <t>Pro Cluentio</t>
@@ -257,10 +254,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -281,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,7 +318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -427,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -569,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B189663A-6E1D-466D-8916-6E9F20D1671A}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,20 +662,15 @@
         <v>7.6103500761035008</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>11</v>
@@ -693,7 +685,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -708,7 +700,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>6</v>
@@ -723,7 +715,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
@@ -738,7 +730,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>6</v>
@@ -753,7 +745,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
@@ -768,7 +760,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4">
         <v>6</v>
@@ -783,7 +775,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>11</v>
@@ -798,7 +790,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4">
         <v>5</v>
@@ -813,7 +805,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -828,7 +820,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -843,7 +835,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
@@ -858,7 +850,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
@@ -873,7 +865,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4">
         <v>9</v>
@@ -888,7 +880,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4">
         <v>6</v>
@@ -903,7 +895,7 @@
     </row>
     <row r="22" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4">
         <v>10</v>
@@ -918,7 +910,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -933,7 +925,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
@@ -948,7 +940,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -963,7 +955,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="8">
         <v>12</v>
@@ -978,7 +970,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="8">
         <v>6</v>
